--- a/assets/competition-info/schedule-bc.xlsx
+++ b/assets/competition-info/schedule-bc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="740" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1920" yWindow="280" windowWidth="24560" windowHeight="13000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="B Division" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
   <si>
     <t>Event</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Impound</t>
   </si>
   <si>
-    <t>Battery Buggy</t>
-  </si>
-  <si>
     <t>Boomilever</t>
   </si>
   <si>
@@ -70,30 +67,12 @@
     <t>Heredity</t>
   </si>
   <si>
-    <t>Herpetology</t>
-  </si>
-  <si>
     <t>Meteorology</t>
   </si>
   <si>
-    <t>Mystery Architecture</t>
-  </si>
-  <si>
-    <t>Potions and Poisons</t>
-  </si>
-  <si>
     <t>Road Scholor</t>
   </si>
   <si>
-    <t>Roller Coaster</t>
-  </si>
-  <si>
-    <t>Solar System</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
     <t>Water Quality</t>
   </si>
   <si>
@@ -115,9 +94,6 @@
     <t>Designer Genes</t>
   </si>
   <si>
-    <t>Fermi Questions</t>
-  </si>
-  <si>
     <t>Forensics</t>
   </si>
   <si>
@@ -136,151 +112,218 @@
     <t>Sounds of Music</t>
   </si>
   <si>
-    <t>Hospitality/grading room (if a quieter room is desired, just ask)</t>
-  </si>
-  <si>
     <t>Check in/Scoring</t>
   </si>
   <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>ESUS</t>
+  </si>
+  <si>
+    <t>Elastic Launch Glider*</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Detector Building</t>
+  </si>
+  <si>
+    <t>Gravity Vehicle</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Ornithology</t>
+  </si>
+  <si>
+    <t>Write it do it</t>
+  </si>
+  <si>
+    <t>Ping Pong Parachute</t>
+  </si>
+  <si>
+    <t>Food Science</t>
+  </si>
+  <si>
+    <t>Ping-Pong Parachute</t>
+  </si>
+  <si>
+    <t>Reach for the Stars</t>
+  </si>
+  <si>
+    <t>8:30-9:20</t>
+  </si>
+  <si>
+    <t>9:40-10:40</t>
+  </si>
+  <si>
+    <t>10:50-11:50</t>
+  </si>
+  <si>
+    <t>12:20-1:20</t>
+  </si>
+  <si>
+    <t>1:30-2:30</t>
+  </si>
+  <si>
+    <t>2:40-3:40</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>17-24</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>8:30-9:30</t>
+  </si>
+  <si>
+    <t>21-32</t>
+  </si>
+  <si>
+    <t>7:20-8:20</t>
+  </si>
+  <si>
+    <t>Wright  Stuff*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Trim flights: </t>
+  </si>
+  <si>
     <r>
-      <t>* Practice Flights</t>
+      <t>* Practice Flights:</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TBA (if any)</t>
-    </r>
-  </si>
-  <si>
-    <t>ESUS</t>
-  </si>
-  <si>
-    <t>Wright Stuff*</t>
-  </si>
-  <si>
-    <t>Elastic Launch Glider*</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>8:00-9:00</t>
-  </si>
-  <si>
-    <t>7:15-7:45</t>
-  </si>
-  <si>
-    <t>8:30-9:30</t>
-  </si>
-  <si>
-    <t>9:40-10:40</t>
-  </si>
-  <si>
-    <t>10:50-11:50</t>
-  </si>
-  <si>
-    <t>12:20-1:20</t>
-  </si>
-  <si>
-    <t>1:30-2:30</t>
-  </si>
-  <si>
-    <t>2:40-3:40</t>
-  </si>
-  <si>
-    <t>F-3</t>
-  </si>
-  <si>
-    <t>9-16</t>
-  </si>
-  <si>
-    <t>17-24</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>1-11</t>
-  </si>
-  <si>
-    <t>12-22</t>
-  </si>
-  <si>
-    <t>23-33</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Updated </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1/1</t>
+      <t xml:space="preserve"> 7:20-8:20</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/201</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
+  </si>
+  <si>
+    <t>7:30-8:15</t>
+  </si>
+  <si>
+    <t>8:00-8:45</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BIG GYM</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>SMALL GYM</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>QUAD</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>C1,C3</t>
+  </si>
+  <si>
+    <t>CAFETERIA</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Grading Room</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Hospitality for ES</t>
+  </si>
+  <si>
+    <t>Updated 03/05/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +341,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,11 +364,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,13 +378,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,12 +421,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3366FF"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,8 +433,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -445,36 +511,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="61" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="61" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="86">
+    <cellStyle name="Accent1" xfId="61" builtinId="29"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -505,8 +613,18 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -537,8 +655,18 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -879,21 +1007,21 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="8" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" customWidth="1"/>
     <col min="11" max="11" width="6.6640625" customWidth="1"/>
   </cols>
@@ -902,28 +1030,28 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -935,24 +1063,26 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K2" s="1"/>
     </row>
@@ -960,43 +1090,47 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -1004,22 +1138,24 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -1027,22 +1163,24 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -1050,22 +1188,24 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -1074,404 +1214,440 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
+      <c r="A26" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1480,15 +1656,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="10" t="s">
-        <v>54</v>
+      <c r="I26" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1497,52 +1673,67 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="10" t="s">
-        <v>54</v>
+      <c r="I27" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12"/>
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
+      <c r="I28" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E2:E24"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
+  <mergeCells count="12">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E2:E25"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Lucida Grande,Regular"&amp;K000000DRAFT #2:  Sacramento Regional Science Olympiad Tournament Division B Schedule March 2, 2019</oddHeader>
+    <oddHeader>&amp;C&amp;"Lucida Grande,Regular"&amp;K000000FINAL SCHEDULE:  Sacramento Regional Science Olympiad Division B Schedule March 7, 2020</oddHeader>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1557,22 +1748,21 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView view="pageLayout" topLeftCell="A17" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="8" width="6.83203125" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" customWidth="1"/>
     <col min="11" max="11" width="6.83203125" customWidth="1"/>
   </cols>
@@ -1581,28 +1771,28 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1614,543 +1804,587 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="7" t="s">
-        <v>44</v>
+      <c r="F2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7" t="s">
-        <v>44</v>
+      <c r="F3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="7" t="s">
-        <v>44</v>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="7" t="s">
-        <v>44</v>
+      <c r="F6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="7" t="s">
-        <v>44</v>
+      <c r="F9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="7" t="s">
-        <v>44</v>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="7" t="s">
-        <v>44</v>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>60</v>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="7" t="s">
-        <v>44</v>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="7" t="s">
-        <v>44</v>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="7" t="s">
-        <v>44</v>
+      <c r="I14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="7" t="s">
-        <v>44</v>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="1"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="7" t="s">
-        <v>44</v>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="7" t="s">
-        <v>44</v>
+      <c r="I24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
+      <c r="A26" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2159,15 +2393,15 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="10" t="s">
-        <v>54</v>
+      <c r="I26" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2176,53 +2410,70 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="10" t="s">
-        <v>54</v>
+      <c r="I27" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="12"/>
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>61</v>
+      <c r="I28" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
+    <row r="29" spans="1:11" ht="16" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="13">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Lucida Grande,Regular"&amp;K000000DRAFT #2:  Sacramento Regional Science Olympiad Tournament Division C Schedule March 2, 2019</oddHeader>
+    <oddHeader>&amp;C&amp;"Lucida Grande,Regular"&amp;K000000FINAL SCHEDULE:  Sacramento Regional Science Olympiad Division C Schedule March 7, 2020</oddHeader>
   </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
